--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.7</v>
+        <v>3.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.76</v>
+        <v>3.02</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.02</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>3.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>5.06</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.48</v>
+        <v>4.28</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19/08/2023 13:02</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
         <v>3.48</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>19/08/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.28</v>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 02:14</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.33</v>
+        <v>3.54</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.76</v>
+        <v>3.85</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>7.73</v>
+        <v>3.34</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.55</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.64</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.11</v>
+        <v>6.33</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>5.76</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.26</v>
+        <v>7.73</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.25</v>
+        <v>6.55</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.34</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.68</v>
+        <v>2.9</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Stolem Gniewino</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.35</v>
+        <v>4.25</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:56</t>
+          <t>27/08/2023 10:03</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.37</v>
+        <v>4.61</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.81</v>
+        <v>4.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:57</t>
+          <t>27/08/2023 10:08</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.45</v>
+        <v>1.51</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.27</v>
+        <v>1.82</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:56</t>
+          <t>27/08/2023 10:03</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-stolem-gniewino/zPTPwvW4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-gedania-gdansk/SI6bNIoO/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.25</v>
+        <v>1.35</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:03</t>
+          <t>27/08/2023 10:56</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.61</v>
+        <v>4.37</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.47</v>
+        <v>4.81</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:08</t>
+          <t>27/08/2023 10:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.51</v>
+        <v>5.45</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.82</v>
+        <v>5.27</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:03</t>
+          <t>27/08/2023 10:56</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-gedania-gdansk/SI6bNIoO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-stolem-gniewino/zPTPwvW4/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.21</v>
+        <v>1.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>01/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>31/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>31/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="T46" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>31/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>01/09/2023 17:00</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.31</v>
+        <v>2.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>01/09/2023 16:39</t>
+          <t>01/09/2023 17:00</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.15</v>
+        <v>3.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>6.86</v>
+        <v>2.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.31</v>
+        <v>2.35</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.42</v>
+        <v>1.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:57</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.77</v>
+        <v>3.27</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.02</v>
+        <v>3.76</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>2.41</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.73</v>
+        <v>3.64</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.35</v>
+        <v>3.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.77</v>
+        <v>3.42</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:57</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.27</v>
+        <v>3.77</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.76</v>
+        <v>4.02</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.41</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.64</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,190 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-starogard-gdanski/h25Epnqk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45191.5</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>22/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>22/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>20/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>22/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-polonia-sroda-wielkopol/zoN4e3c7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45191.70833333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-gedania-gdansk/2XOdcPSf/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:47</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.39</v>
+        <v>2.91</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.96</v>
+        <v>2.61</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:47</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.91</v>
+        <v>3.39</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.61</v>
+        <v>3.96</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.02</v>
+        <v>1.76</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.7</v>
+        <v>3.86</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>3.02</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.25</v>
+        <v>1.35</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:03</t>
+          <t>27/08/2023 10:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.61</v>
+        <v>4.37</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.47</v>
+        <v>4.81</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:08</t>
+          <t>27/08/2023 10:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.51</v>
+        <v>5.45</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>27/08/2023 03:42</t>
+          <t>25/08/2023 23:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.82</v>
+        <v>5.27</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 10:03</t>
+          <t>27/08/2023 10:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-gedania-gdansk/SI6bNIoO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-stolem-gniewino/zPTPwvW4/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Stolem Gniewino</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.35</v>
+        <v>4.25</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.41</v>
+        <v>3</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:56</t>
+          <t>27/08/2023 10:03</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.37</v>
+        <v>4.61</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.81</v>
+        <v>4.47</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:57</t>
+          <t>27/08/2023 10:08</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.45</v>
+        <v>1.51</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>25/08/2023 23:13</t>
+          <t>27/08/2023 03:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.27</v>
+        <v>1.82</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 10:56</t>
+          <t>27/08/2023 10:03</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-stolem-gniewino/zPTPwvW4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-gedania-gdansk/SI6bNIoO/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>01/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>01/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>01/09/2023 16:55</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>01/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:55</t>
-        </is>
-      </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.49</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 16:55</t>
+          <t>01/09/2023 16:56</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
         </is>
       </c>
     </row>
@@ -4529,46 +4529,46 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,24 +4576,24 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.49</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>01/09/2023 16:39</t>
+          <t>01/09/2023 17:00</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.15</v>
+        <v>3.38</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.86</v>
+        <v>2.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>1.36</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,48 +4736,48 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>01/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>31/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="R47" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S47" t="inlineStr">
         <is>
           <t>31/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P47" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q47" t="inlineStr">
+      <c r="T47" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="U47" t="inlineStr">
         <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="R47" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>31/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T47" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>01/09/2023 17:00</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>3.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,558 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-gedania-gdansk/2XOdcPSf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-swit-skolwin/tON0dqr1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45192.60416666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:44</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>22/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-luzino/65Vmaobr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:53</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:53</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:53</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
